--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/ambushconvoy/2/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/ambushconvoy/2/LocalizationDef.xlsx
@@ -1340,7 +1340,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1646,3815 +1647,3815 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1" style="1"/>
-    <col min="2" max="3" width="82.5703125" customWidth="1" style="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1" style="2"/>
+    <col min="2" max="3" width="82.5703125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D228" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D246" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D247" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D248" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D249" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D251" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D252" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D253" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D254" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D255" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D257" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D259" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D262" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D263" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D264" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="D265" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D266" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="D267" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D268" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D269" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="D270" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D271" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D272" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/ambushconvoy/2/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/ambushconvoy/2/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
   <si>
     <t>AmbushConvoy_GuerrillaInterception.contractName</t>
   </si>
@@ -34,7 +34,7 @@
     <t>The {TEAM_TAR.FactionDef.Demonym} convoy is inbound, Commander.</t>
   </si>
   <si>
-    <t>Приближается конвой, командир. Это {TEAM_TAR.FactionDef.Demonym}.</t>
+    <t>Приближается конвой, командир. Это {TEAM_TAR.FactionDef.Name}.</t>
   </si>
   <si>
     <t>AmbushConvoy_GuerrillaInterception.dialogueList0.dialogueContent1.words</t>
@@ -193,6 +193,9 @@
     <t>Guerrilla strikes against our facilities have increased, and our intel says {TEAM_TAR.FactionDef.Name} is bankrolling the guerrillas and providing logistical support in the form of small arms, explosives, and medical supplies. We need you to intercept the {TEAM_TAR.FactionDef.Demonym} supply convoy and destroy it before it reaches the guerrilla forces.</t>
   </si>
   <si>
+    <t>Guerrilla strikes against our facilities have increased, and our intel says {TEAM_TAR.FactionDef.Name} is bankrolling the guerrillas and providing logistical support in the form of small arms, explosives, and medical supplies. We need you to intercept the {TEAM_TAR.FactionDef.Name} supply convoy and destroy it before it reaches the guerrilla forces.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_HostileAcquisitions.contractName</t>
   </si>
   <si>
@@ -247,6 +250,9 @@
     <t>The {TEAM_TAR.FactionDef.Demonym} escorts are out of commission, Commander. Our employers will be pleased with the extra carnage.</t>
   </si>
   <si>
+    <t>The {TEAM_TAR.FactionDef.Name} escorts are out of commission, Commander. Our employers will be pleased with the extra carnage.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_HostileAcquisitions.dialogueList6.dialogueContent0.words</t>
   </si>
   <si>
@@ -301,12 +307,18 @@
     <t>Destroy {TEAM_TAR.FactionDef.Demonym} Reinforcements</t>
   </si>
   <si>
+    <t>Destroy {TEAM_TAR.FactionDef.Name} Reinforcements</t>
+  </si>
+  <si>
     <t>AmbushConvoy_HostileAcquisitions.shortDescription</t>
   </si>
   <si>
     <t>A {TEAM_TAR.FactionDef.Demonym} convoy regularly transports rare minerals through the region. Our agents have acquired the convoy's travel plans so that you can ambush the convoy. We do not require that you recover the minerals. We just want to keep them out of the enemy's hands.</t>
   </si>
   <si>
+    <t>A {TEAM_TAR.FactionDef.Name} convoy regularly transports rare minerals through the region. Our agents have acquired the convoy's travel plans so that you can ambush the convoy. We do not require that you recover the minerals. We just want to keep them out of the enemy's hands.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_InterceptedEvacuation.contractName</t>
   </si>
   <si>
@@ -319,6 +331,9 @@
     <t>We've got a signal from the {TEAM_EMP.FactionDef.Demonym} spotters, Commander. Convoy is incoming.</t>
   </si>
   <si>
+    <t>We've got a signal from the {TEAM_EMP.FactionDef.Name} spotters, Commander. Convoy is incoming.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_InterceptedEvacuation.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
@@ -391,6 +406,9 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Convoy</t>
   </si>
   <si>
+    <t>Destroy the {TEAM_TAR.FactionDef.Name} Convoy</t>
+  </si>
+  <si>
     <t>AmbushConvoy_InterceptedEvacuation.objectiveList1.description</t>
   </si>
   <si>
@@ -403,6 +421,9 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Escorts</t>
   </si>
   <si>
+    <t>Destroy the {TEAM_TAR.FactionDef.Name} Escorts</t>
+  </si>
+  <si>
     <t>AmbushConvoy_InterceptedEvacuation.objectiveList2.description</t>
   </si>
   <si>
@@ -553,6 +574,9 @@
     <t>We're tracking {TEAM_TAR.FactionDef.Demonym} supply convoys that have been delivering weapons and explosives to a self-appointed warlord here on {TGT_SYSTEM.name}. In return, his fighters have been wreaking havoc on {TEAM_EMP.FactionDef.Demonym} facilities in the region. We need you to interdict the convoy and destroy it.</t>
   </si>
   <si>
+    <t>We're tracking {TEAM_TAR.FactionDef.Name} supply convoys that have been delivering weapons and explosives to a self-appointed warlord here on {TGT_SYSTEM.name}. In return, his fighters have been wreaking havoc on {TEAM_EMP.FactionDef.Name} facilities in the region. We need you to interdict the convoy and destroy it.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_LostSupplies.contractName</t>
   </si>
   <si>
@@ -628,12 +652,18 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Shipment</t>
   </si>
   <si>
+    <t>Destroy the {TEAM_TAR.FactionDef.Name} Shipment</t>
+  </si>
+  <si>
     <t>AmbushConvoy_LostSupplies.objectiveList1.title</t>
   </si>
   <si>
     <t>Eliminate {TEAM_TAR.FactionDef.Demonym} Escorts</t>
   </si>
   <si>
+    <t>Eliminate {TEAM_TAR.FactionDef.Name} Escorts</t>
+  </si>
+  <si>
     <t>AmbushConvoy_LostSupplies.objectiveList2.title</t>
   </si>
   <si>
@@ -643,6 +673,9 @@
     <t>Intercept the {TEAM_TAR.FactionDef.Demonym} Convoy</t>
   </si>
   <si>
+    <t>Intercept the {TEAM_TAR.FactionDef.Name} Convoy</t>
+  </si>
+  <si>
     <t>AmbushConvoy_LostSupplies.objectiveList4.title</t>
   </si>
   <si>
@@ -658,6 +691,9 @@
     <t>We've become aware of a convoy transporting supplies to a {TEAM_TAR.FactionDef.Demonym} facility. We'd like those supplies to become 'lost', if you take my meaning. We will provide the coordinates to locate the shipment, and handle any cleanup after the convoy 'goes astray'.</t>
   </si>
   <si>
+    <t>We've become aware of a convoy transporting supplies to a {TEAM_TAR.FactionDef.Name} facility. We'd like those supplies to become 'lost', if you take my meaning. We will provide the coordinates to locate the shipment, and handle any cleanup after the convoy 'goes astray'.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_Pirate_EasyPickings.contractName</t>
   </si>
   <si>
@@ -859,6 +895,9 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Guards</t>
   </si>
   <si>
+    <t>Destroy the {TEAM_TAR.FactionDef.Name} Guards</t>
+  </si>
+  <si>
     <t>AmbushConvoy_ProofOfGuilt.objectiveList2.description</t>
   </si>
   <si>
@@ -889,6 +928,9 @@
     <t>A friend of our organization has been accused by {TEAM_TAR.FactionDef.Name} of illegal activities. While under this accusation, she's unable to perform her duties for {TEAM_EMP.FactionDef.Demonym} leadership. Evidence to be used in an upcoming hearing is being transported to a spaceport, for safe-keeping off-planet. Your team is to intercept this convoy and destroy it.</t>
   </si>
   <si>
+    <t>A friend of our organization has been accused by {TEAM_TAR.FactionDef.Name} of illegal activities. While under this accusation, she's unable to perform her duties for {TEAM_EMP.FactionDef.Name} leadership. Evidence to be used in an upcoming hearing is being transported to a spaceport, for safe-keeping off-planet. Your team is to intercept this convoy and destroy it.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_Repossession.contractName</t>
   </si>
   <si>
@@ -925,6 +967,9 @@
     <t>We've signaled the {TEAM_EMP.FactionDef.Demonym} salvage crews that they're clear to begin their work. Well done, Commander.</t>
   </si>
   <si>
+    <t>We've signaled the {TEAM_EMP.FactionDef.Name} salvage crews that they're clear to begin their work. Well done, Commander.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_Repossession.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
@@ -991,6 +1036,9 @@
     <t>A {TEAM_EMP.FactionDef.Demonym} convoy was ambushed and looted for expensive industrial materials, and the perpetrators, {TEAM_TAR.FactionDef.Name}, are moving the stolen goods to a secure location. We'd like you to strike the convoy and destroy it; our salvage teams will then retrieve our goods from the wreckage.</t>
   </si>
   <si>
+    <t>A {TEAM_EMP.FactionDef.Name} convoy was ambushed and looted for expensive industrial materials, and the perpetrators, {TEAM_TAR.FactionDef.Name}, are moving the stolen goods to a secure location. We'd like you to strike the convoy and destroy it; our salvage teams will then retrieve our goods from the wreckage.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_TerroristConvoy.contractName</t>
   </si>
   <si>
@@ -1000,6 +1048,9 @@
     <t>AmbushConvoy_TerroristConvoy.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
+    <t>The {TEAM_TAR.FactionDef.Name} convoy is inbound, Commander.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_TerroristConvoy.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
@@ -1087,6 +1138,9 @@
     <t>Terrorist strikes against our facilities have increased, and our intel says {TEAM_TAR.FactionDef.Name} is bankrolling the terrorists and providing logistical support in the form of small arms, explosives, and medical supplies. We need you to intercept the {TEAM_TAR.FactionDef.Demonym} supply convoy and destroy it before it reaches the terrorists.</t>
   </si>
   <si>
+    <t>Terrorist strikes against our facilities have increased, and our intel says {TEAM_TAR.FactionDef.Name} is bankrolling the terrorists and providing logistical support in the form of small arms, explosives, and medical supplies. We need you to intercept the {TEAM_TAR.FactionDef.Name} supply convoy and destroy it before it reaches the terrorists.</t>
+  </si>
+  <si>
     <t>AmbushConvoy_ThornInTheSide.contractName</t>
   </si>
   <si>
@@ -1202,6 +1256,9 @@
   </si>
   <si>
     <t>The {TEAM_TAR.FactionDef.Demonym} control of this world is nearly absolute. We've identified a point of vulnerability, however: they move supplies and weapons by convoy, and those convoys are lightly defended by a single lance of 'Mechs. If we destroy enough of their supply convoys, their other operations will be weakened enough for our forces to move in and take advantage of their fragility. We don't want to tip our hand, however, so we'd like you to engage in a little guerilla warfare on our behalf.</t>
+  </si>
+  <si>
+    <t>The {TEAM_TAR.FactionDef.Name} control of this world is nearly absolute. We've identified a point of vulnerability, however: they move supplies and weapons by convoy, and those convoys are lightly defended by a single lance of 'Mechs. If we destroy enough of their supply convoys, their other operations will be weakened enough for our forces to move in and take advantage of their fragility. We don't want to tip our hand, however, so we'd like you to engage in a little guerilla warfare on our behalf.</t>
   </si>
   <si>
     <t>AmbushConvoy_ThornInTheSide_Alt.contractName</t>
@@ -1340,7 +1397,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1641,14 +1699,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C28" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.140625" customWidth="1" style="2"/>
-    <col min="2" max="3" width="82.5703125" customWidth="1" style="2"/>
+    <col min="2" max="2" width="82.5703125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="91.85546875" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1952,8 +2011,8 @@
       <c r="B22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -1961,13 +2020,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -1975,13 +2034,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -1989,13 +2048,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -2003,13 +2062,13 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
@@ -2017,13 +2076,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -2031,13 +2090,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -2045,13 +2104,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
@@ -2059,7 +2118,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2073,7 +2132,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
@@ -2087,13 +2146,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -2101,13 +2160,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -2115,7 +2174,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>35</v>
@@ -2129,13 +2188,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -2143,7 +2202,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>41</v>
@@ -2157,13 +2216,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -2171,13 +2230,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -2185,13 +2244,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -2199,7 +2258,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>50</v>
@@ -2213,13 +2272,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -2227,7 +2286,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>54</v>
@@ -2241,13 +2300,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
@@ -2255,13 +2314,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -2269,13 +2328,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -2283,13 +2342,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -2297,13 +2356,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -2311,13 +2370,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -2325,13 +2384,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -2339,13 +2398,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -2353,13 +2412,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -2367,7 +2426,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -2381,7 +2440,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>26</v>
@@ -2395,13 +2454,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -2409,13 +2468,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
@@ -2423,7 +2482,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>35</v>
@@ -2437,7 +2496,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>38</v>
@@ -2451,7 +2510,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>41</v>
@@ -2465,13 +2524,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -2479,13 +2538,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
@@ -2493,13 +2552,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -2507,13 +2566,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -2521,13 +2580,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -2535,13 +2594,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -2549,13 +2608,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -2563,13 +2622,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
@@ -2577,13 +2636,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
@@ -2591,13 +2650,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -2605,7 +2664,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>54</v>
@@ -2619,13 +2678,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -2633,13 +2692,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -2647,13 +2706,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -2661,13 +2720,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -2675,13 +2734,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -2689,13 +2748,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -2703,13 +2762,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -2717,13 +2776,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -2731,13 +2790,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -2745,13 +2804,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -2759,7 +2818,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>23</v>
@@ -2773,7 +2832,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>26</v>
@@ -2787,13 +2846,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -2801,13 +2860,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -2815,7 +2874,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>35</v>
@@ -2829,13 +2888,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -2843,7 +2902,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>41</v>
@@ -2857,13 +2916,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -2871,13 +2930,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
@@ -2885,13 +2944,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
@@ -2899,7 +2958,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>50</v>
@@ -2913,13 +2972,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -2927,7 +2986,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>54</v>
@@ -2941,13 +3000,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -2955,13 +3014,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -2969,13 +3028,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -2983,13 +3042,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -2997,13 +3056,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
@@ -3011,13 +3070,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -3025,13 +3084,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
@@ -3039,13 +3098,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -3053,7 +3112,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>23</v>
@@ -3067,7 +3126,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>26</v>
@@ -3081,13 +3140,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -3095,13 +3154,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -3109,7 +3168,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>35</v>
@@ -3123,13 +3182,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -3137,7 +3196,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>41</v>
@@ -3151,13 +3210,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -3165,13 +3224,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -3179,13 +3238,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
@@ -3193,7 +3252,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>50</v>
@@ -3207,13 +3266,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -3221,13 +3280,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -3235,7 +3294,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>56</v>
@@ -3249,13 +3308,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -3263,13 +3322,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
@@ -3277,13 +3336,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -3291,13 +3350,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>3</v>
@@ -3305,13 +3364,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -3319,13 +3378,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>3</v>
@@ -3333,7 +3392,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>17</v>
@@ -3347,13 +3406,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>3</v>
@@ -3361,13 +3420,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -3375,7 +3434,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>26</v>
@@ -3389,13 +3448,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
@@ -3403,13 +3462,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
@@ -3417,7 +3476,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>35</v>
@@ -3431,7 +3490,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>38</v>
@@ -3445,7 +3504,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>41</v>
@@ -3459,13 +3518,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>3</v>
@@ -3473,13 +3532,13 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>3</v>
@@ -3487,13 +3546,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -3501,13 +3560,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>3</v>
@@ -3515,13 +3574,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>3</v>
@@ -3529,13 +3588,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>3</v>
@@ -3543,13 +3602,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>3</v>
@@ -3557,13 +3616,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>3</v>
@@ -3571,13 +3630,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>3</v>
@@ -3585,13 +3644,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -3599,7 +3658,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>54</v>
@@ -3613,13 +3672,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
@@ -3627,13 +3686,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -3641,13 +3700,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>3</v>
@@ -3655,13 +3714,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -3669,13 +3728,13 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
@@ -3683,13 +3742,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>3</v>
@@ -3697,13 +3756,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -3711,13 +3770,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -3725,13 +3784,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -3739,13 +3798,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -3753,7 +3812,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>23</v>
@@ -3767,7 +3826,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>26</v>
@@ -3781,13 +3840,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -3795,13 +3854,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -3809,7 +3868,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>35</v>
@@ -3823,13 +3882,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -3837,7 +3896,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>41</v>
@@ -3851,13 +3910,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>3</v>
@@ -3865,13 +3924,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>3</v>
@@ -3879,13 +3938,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -3893,13 +3952,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -3907,13 +3966,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -3921,13 +3980,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -3935,13 +3994,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -3949,13 +4008,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -3963,13 +4022,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -3977,13 +4036,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -3991,7 +4050,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>54</v>
@@ -4005,13 +4064,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -4019,13 +4078,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -4033,13 +4092,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -4047,13 +4106,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -4061,13 +4120,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -4075,13 +4134,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -4089,13 +4148,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -4103,13 +4162,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -4117,13 +4176,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>302</v>
+        <v>316</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>3</v>
@@ -4131,13 +4190,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -4145,7 +4204,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>23</v>
@@ -4159,7 +4218,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>26</v>
@@ -4173,13 +4232,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -4187,13 +4246,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -4201,7 +4260,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>35</v>
@@ -4215,13 +4274,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -4229,7 +4288,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>41</v>
@@ -4243,13 +4302,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -4257,13 +4316,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -4271,13 +4330,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -4285,7 +4344,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>50</v>
@@ -4299,13 +4358,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -4313,7 +4372,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>54</v>
@@ -4327,7 +4386,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>56</v>
@@ -4341,13 +4400,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>324</v>
+        <v>339</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -4355,13 +4414,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -4369,13 +4428,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>5</v>
+      <c r="C195" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -4383,13 +4442,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -4397,7 +4456,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>11</v>
@@ -4411,7 +4470,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>14</v>
@@ -4425,13 +4484,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -4439,13 +4498,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -4453,7 +4512,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>23</v>
@@ -4467,7 +4526,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>26</v>
@@ -4481,13 +4540,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -4495,13 +4554,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -4509,7 +4568,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>35</v>
@@ -4523,13 +4582,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -4537,7 +4596,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>41</v>
@@ -4551,13 +4610,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -4565,13 +4624,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -4579,13 +4638,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -4593,7 +4652,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>50</v>
@@ -4607,7 +4666,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>52</v>
@@ -4621,7 +4680,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>54</v>
@@ -4635,7 +4694,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>56</v>
@@ -4649,13 +4708,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>356</v>
+        <v>373</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -4663,13 +4722,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -4677,13 +4736,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -4691,13 +4750,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>3</v>
@@ -4705,13 +4764,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -4719,13 +4778,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -4733,13 +4792,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -4747,13 +4806,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -4761,7 +4820,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>26</v>
@@ -4775,13 +4834,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -4789,13 +4848,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -4803,13 +4862,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -4817,7 +4876,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>35</v>
@@ -4831,7 +4890,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>38</v>
@@ -4845,7 +4904,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>41</v>
@@ -4859,13 +4918,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -4873,13 +4932,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -4887,13 +4946,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -4901,13 +4960,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -4915,13 +4974,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -4929,13 +4988,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -4943,13 +5002,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>3</v>
@@ -4957,13 +5016,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -4971,13 +5030,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -4985,13 +5044,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>3</v>
@@ -4999,7 +5058,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>54</v>
@@ -5013,13 +5072,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -5027,13 +5086,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -5041,13 +5100,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>395</v>
+        <v>413</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -5055,13 +5114,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>3</v>
@@ -5069,13 +5128,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>3</v>
@@ -5083,13 +5142,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -5097,13 +5156,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -5111,13 +5170,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -5125,13 +5184,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -5139,13 +5198,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
@@ -5153,13 +5212,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -5167,7 +5226,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>26</v>
@@ -5181,13 +5240,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>3</v>
@@ -5195,13 +5254,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -5209,13 +5268,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>3</v>
@@ -5223,7 +5282,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>35</v>
@@ -5237,7 +5296,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>38</v>
@@ -5251,7 +5310,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>41</v>
@@ -5265,13 +5324,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>3</v>
@@ -5279,13 +5338,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>3</v>
@@ -5293,13 +5352,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
@@ -5307,13 +5366,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
@@ -5321,13 +5380,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>3</v>
@@ -5335,13 +5394,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -5349,13 +5408,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -5363,13 +5422,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>3</v>
@@ -5377,13 +5436,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -5391,13 +5450,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>3</v>
@@ -5405,7 +5464,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>54</v>
@@ -5419,13 +5478,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>3</v>
@@ -5433,13 +5492,13 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>3</v>
@@ -5447,13 +5506,13 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>395</v>
+        <v>413</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>3</v>
